--- a/generated-output.xlsx
+++ b/generated-output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>S.no</t>
   </si>
@@ -34,16 +34,16 @@
     <t>Repository</t>
   </si>
   <si>
-    <t>TC_1_Commercial Auto Line</t>
-  </si>
-  <si>
-    <t>Calidate Commercial Auto line CLAUSE_CATEGORY</t>
+    <t>TC_1_Verify the dynamic fields for CA 11 211</t>
+  </si>
+  <si>
+    <t>Verify the dynamic fields for CA 11 211</t>
   </si>
   <si>
     <t>Manual</t>
   </si>
   <si>
-    <t>Login to PC</t>
+    <t>Login to PC and initiate a submission</t>
   </si>
   <si>
     <t>User should be able to log in successfully and should be navigated to the Home Screen</t>
@@ -52,6 +52,9 @@
     <t>SmartComm/Dyanamic Forms/SBGWI-256 - Something</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>initiate a New Submission transaction for a CA policy</t>
   </si>
   <si>
@@ -68,6 +71,12 @@
   </si>
   <si>
     <t>The Coverage Term(s) should be displayed along with the default value (if any) and options available for selection</t>
+  </si>
+  <si>
+    <t>TC_1_Verify the dynamic fields for BA 15 210</t>
+  </si>
+  <si>
+    <t>Verify the dynamic fields for BA 15 210</t>
   </si>
 </sst>
 </file>
@@ -94,9 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6FA"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="1">
@@ -453,14 +460,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="5" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -515,23 +522,68 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,10 +591,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -562,70 +614,68 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/generated-output.xlsx
+++ b/generated-output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>S.no</t>
   </si>
@@ -34,16 +34,16 @@
     <t>Repository</t>
   </si>
   <si>
-    <t>TC_1_Verify the dynamic fields for CA 11 211</t>
-  </si>
-  <si>
-    <t>Verify the dynamic fields for CA 11 211</t>
+    <t>TC_1_Verify the dynamic fields for BAS UM (GA) 12 49 - Georgia Manhole Liability Coverage</t>
+  </si>
+  <si>
+    <t>Verify the dynamic fields for BAS UM (GA) 12 49 - Georgia Manhole Liability Coverage</t>
   </si>
   <si>
     <t>Manual</t>
   </si>
   <si>
-    <t>Login to PC and initiate a submission</t>
+    <t>Login to PC and initiate a submission for GA</t>
   </si>
   <si>
     <t>User should be able to log in successfully and should be navigated to the Home Screen</t>
@@ -61,10 +61,10 @@
     <t>User should be able to start a New submission transaction</t>
   </si>
   <si>
-    <t>Navigate to COVERAGE_TYPE tab.</t>
-  </si>
-  <si>
-    <t>User should be able to nanvigate to the COVERAGE_TYPE screen</t>
+    <t>Add  will triggered when Manhole Liability coverage is selected</t>
+  </si>
+  <si>
+    <t>User should be able to add all the terms</t>
   </si>
   <si>
     <t>Verify that the below Coverage Term(s) is(are) displayed FIELDS</t>
@@ -73,10 +73,13 @@
     <t>The Coverage Term(s) should be displayed along with the default value (if any) and options available for selection</t>
   </si>
   <si>
-    <t>TC_1_Verify the dynamic fields for BA 15 210</t>
-  </si>
-  <si>
-    <t>Verify the dynamic fields for BA 15 210</t>
+    <t>TC_1_Verify the dynamic fields for BAS UM (AZ) 03 12 - Arizona Manhole Liability Coverage</t>
+  </si>
+  <si>
+    <t>Verify the dynamic fields for BAS UM (AZ) 03 12 - Arizona Manhole Liability Coverage</t>
+  </si>
+  <si>
+    <t>Login to PC and initiate a submission for AZ</t>
   </si>
 </sst>
 </file>
@@ -95,15 +98,12 @@
       <b/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="1">
@@ -120,7 +120,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,8 +464,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="2" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
@@ -600,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>

--- a/generated-output.xlsx
+++ b/generated-output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>S.no</t>
   </si>
@@ -52,9 +52,6 @@
     <t>SmartComm/Dyanamic Forms/SBGWI-256 - Something</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>initiate a New Submission transaction for a CA policy</t>
   </si>
   <si>
@@ -80,6 +77,18 @@
   </si>
   <si>
     <t>Login to PC and initiate a submission for AZ</t>
+  </si>
+  <si>
+    <t>TC_1_Verify the dynamic fields for BAS BAS EDITION - FORMNAME</t>
+  </si>
+  <si>
+    <t>Verify the dynamic fields for BAS BAS EDITION - FORMNAME</t>
+  </si>
+  <si>
+    <t>Login to PC and initiate a submission for STATE</t>
+  </si>
+  <si>
+    <t>Add TRIGGERING_CONDITION</t>
   </si>
 </sst>
 </file>
@@ -460,13 +469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="50" customWidth="1"/>
+    <col min="1" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="6" width="50" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,68 +530,23 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,16 +554,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -613,68 +577,70 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
